--- a/交流管理/项目日报/王将--要做的事.xlsx
+++ b/交流管理/项目日报/王将--要做的事.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>时间</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>中</t>
+  </si>
+  <si>
+    <t>熟练腾讯CDN业务及代码</t>
+  </si>
+  <si>
+    <t>2.测试nginx处理</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1308,7 @@
   <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12.8672" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.9375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.8672" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.73438" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.1562" style="1" customWidth="1"/>
@@ -1390,7 +1396,9 @@
       <c r="C6" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4">
+        <v>0.8</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="16" customHeight="1">
@@ -1401,7 +1409,9 @@
       <c r="C7" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="16" customHeight="1">
@@ -1412,16 +1422,26 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="3">
+        <v>42999</v>
+      </c>
+      <c r="B9" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>6</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
